--- a/Excel-XLSX/UN-BHU.xlsx
+++ b/Excel-XLSX/UN-BHU.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>ooGnM5</t>
+    <t>q3XUxt</t>
   </si>
   <si>
     <t>1966</t>
@@ -123,7 +123,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>null</t>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -648,8 +648,8 @@
       <c r="U2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>34</v>
+      <c r="V2" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-BHU.xlsx
+++ b/Excel-XLSX/UN-BHU.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>q3XUxt</t>
+    <t>4gePQa</t>
   </si>
   <si>
     <t>1966</t>
@@ -648,8 +648,8 @@
       <c r="U2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>35</v>
+      <c r="V2" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-BHU.xlsx
+++ b/Excel-XLSX/UN-BHU.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>4gePQa</t>
+    <t>se3PX8</t>
   </si>
   <si>
     <t>1966</t>
